--- a/fhir/ig/iq/StructureDefinition-ServiceRequestCirugiaLE.xlsx
+++ b/fhir/ig/iq/StructureDefinition-ServiceRequestCirugiaLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="604">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:55:58-03:00</t>
+    <t>2024-12-16T14:50:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -485,6 +485,22 @@
 </t>
   </si>
   <si>
+    <t>ServiceRequest.extension:TipoPriorizacion</t>
+  </si>
+  <si>
+    <t>TipoPriorizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/quirurgico/StructureDefinition/ExtensionTipoPriorizacion}
+</t>
+  </si>
+  <si>
+    <t>Tipo de priorización de la solicitud de cirugía.</t>
+  </si>
+  <si>
+    <t>Extensión para representar el tipo de priorización de la solicitud de cirugía.</t>
+  </si>
+  <si>
     <t>ServiceRequest.extension:FundamentoPriorizacion</t>
   </si>
   <si>
@@ -1226,9 +1242,6 @@
     <t>example</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](http://hl7.org/fhir/R4/valueset-diagnostic-requests.html).</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
   </si>
   <si>
@@ -1553,11 +1566,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Requested performer</t>
+    <t>Profesional de la salud que realiza el cierre de la solicitud de cirugía</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -2221,7 +2230,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO81"/>
+  <dimension ref="A1:AO82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2254,7 +2263,7 @@
     <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="122.26171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="79.609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
@@ -3681,43 +3690,41 @@
         <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>83</v>
       </c>
@@ -3765,7 +3772,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3774,7 +3781,7 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>143</v>
@@ -3786,7 +3793,7 @@
         <v>83</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>83</v>
@@ -3797,14 +3804,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3814,27 +3821,29 @@
         <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>83</v>
       </c>
@@ -3882,7 +3891,7 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3894,30 +3903,30 @@
         <v>83</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3928,27 +3937,29 @@
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3997,53 +4008,53 @@
         <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>83</v>
@@ -4055,7 +4066,7 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>184</v>
@@ -4063,9 +4074,7 @@
       <c r="M16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -4102,40 +4111,40 @@
         <v>83</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AC16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AD16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>83</v>
@@ -4153,26 +4162,26 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>189</v>
@@ -4181,11 +4190,9 @@
         <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>83</v>
       </c>
@@ -4209,52 +4216,52 @@
         <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>83</v>
@@ -4265,10 +4272,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4285,25 +4292,25 @@
         <v>83</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>83</v>
@@ -4328,13 +4335,13 @@
         <v>83</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>83</v>
@@ -4352,7 +4359,7 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4370,10 +4377,10 @@
         <v>83</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>83</v>
@@ -4384,10 +4391,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4410,19 +4417,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4435,7 +4442,7 @@
         <v>83</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>83</v>
@@ -4447,13 +4454,13 @@
         <v>83</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>83</v>
@@ -4471,7 +4478,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4489,10 +4496,10 @@
         <v>83</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>83</v>
@@ -4503,10 +4510,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4520,7 +4527,7 @@
         <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>83</v>
@@ -4529,18 +4536,20 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
       </c>
@@ -4552,7 +4561,7 @@
         <v>83</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>83</v>
@@ -4588,7 +4597,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4606,10 +4615,10 @@
         <v>83</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>83</v>
@@ -4620,10 +4629,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4637,7 +4646,7 @@
         <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>83</v>
@@ -4646,15 +4655,17 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4667,7 +4678,7 @@
         <v>83</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>83</v>
@@ -4703,7 +4714,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4721,10 +4732,10 @@
         <v>83</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>83</v>
@@ -4735,10 +4746,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4761,17 +4772,15 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>237</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -4820,7 +4829,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4838,10 +4847,10 @@
         <v>83</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>83</v>
@@ -4852,10 +4861,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4866,7 +4875,7 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>83</v>
@@ -4878,16 +4887,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4937,13 +4946,13 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>83</v>
@@ -4952,13 +4961,13 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>83</v>
@@ -4969,10 +4978,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4995,16 +5004,16 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5054,7 +5063,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -5069,13 +5078,13 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>83</v>
@@ -5093,7 +5102,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5112,15 +5121,17 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5184,13 +5195,13 @@
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>83</v>
@@ -5201,14 +5212,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5227,13 +5238,13 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5284,7 +5295,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5299,13 +5310,13 @@
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>83</v>
@@ -5316,21 +5327,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>83</v>
@@ -5342,20 +5353,16 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>168</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>83</v>
       </c>
@@ -5403,13 +5410,13 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>83</v>
@@ -5418,13 +5425,13 @@
         <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>83</v>
@@ -5435,44 +5442,46 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>83</v>
       </c>
@@ -5496,13 +5505,13 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>284</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5520,10 +5529,10 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>92</v>
@@ -5535,27 +5544,27 @@
         <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>289</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5581,13 +5590,13 @@
         <v>112</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5598,7 +5607,7 @@
         <v>83</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>83</v>
@@ -5613,13 +5622,13 @@
         <v>83</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>83</v>
@@ -5637,7 +5646,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>92</v>
@@ -5652,27 +5661,27 @@
         <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>135</v>
+        <v>291</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>83</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5689,26 +5698,24 @@
         <v>93</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>83</v>
       </c>
@@ -5717,7 +5724,7 @@
         <v>83</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>83</v>
@@ -5732,11 +5739,13 @@
         <v>83</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>83</v>
@@ -5754,13 +5763,13 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>83</v>
@@ -5769,16 +5778,16 @@
         <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>83</v>
+        <v>302</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>306</v>
+        <v>135</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -5786,10 +5795,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5797,31 +5806,35 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>179</v>
+        <v>306</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
       </c>
@@ -5845,13 +5858,11 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
@@ -5869,31 +5880,31 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>181</v>
+        <v>305</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>182</v>
+        <v>312</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5901,21 +5912,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>83</v>
@@ -5927,7 +5938,7 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>184</v>
@@ -5935,9 +5946,7 @@
       <c r="M32" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5974,40 +5983,40 @@
         <v>83</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AC32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AD32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF32" t="s" s="2">
+      <c r="AG32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>83</v>
@@ -6018,46 +6027,44 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>311</v>
+        <v>137</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>83</v>
       </c>
@@ -6093,19 +6100,19 @@
         <v>83</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>316</v>
+        <v>192</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6117,16 +6124,16 @@
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>318</v>
+        <v>187</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>83</v>
@@ -6137,10 +6144,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6148,31 +6155,35 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
@@ -6220,28 +6231,28 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>182</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>83</v>
@@ -6252,21 +6263,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>83</v>
@@ -6278,7 +6289,7 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>184</v>
@@ -6286,9 +6297,7 @@
       <c r="M35" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6325,40 +6334,40 @@
         <v>83</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AC35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AD35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF35" t="s" s="2">
+      <c r="AG35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>83</v>
@@ -6369,46 +6378,44 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
+        <v>190</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>83</v>
       </c>
@@ -6444,40 +6451,40 @@
         <v>83</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>326</v>
+        <v>192</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>187</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>83</v>
@@ -6488,10 +6495,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6505,7 +6512,7 @@
         <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>83</v>
@@ -6514,18 +6521,20 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
@@ -6573,7 +6582,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6591,10 +6600,10 @@
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>83</v>
@@ -6605,10 +6614,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6616,13 +6625,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>83</v>
@@ -6631,18 +6640,18 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6690,7 +6699,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6708,10 +6717,10 @@
         <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>83</v>
@@ -6722,10 +6731,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6733,7 +6742,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>92</v>
@@ -6748,17 +6757,17 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6807,7 +6816,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6825,10 +6834,10 @@
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>83</v>
@@ -6839,10 +6848,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6856,7 +6865,7 @@
         <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>83</v>
@@ -6865,19 +6874,17 @@
         <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -6926,7 +6933,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6944,10 +6951,10 @@
         <v>83</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>83</v>
@@ -6958,10 +6965,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6984,19 +6991,19 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -7045,7 +7052,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7063,10 +7070,10 @@
         <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>83</v>
@@ -7077,10 +7084,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7088,13 +7095,13 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>83</v>
@@ -7103,66 +7110,68 @@
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="P42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q42" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7177,16 +7186,16 @@
         <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7194,10 +7203,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7205,40 +7214,36 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>351</v>
+        <v>112</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q43" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>83</v>
@@ -7259,13 +7264,13 @@
         <v>83</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>83</v>
@@ -7283,7 +7288,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7298,16 +7303,16 @@
         <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>83</v>
+        <v>379</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>83</v>
+        <v>381</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7315,48 +7320,52 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>386</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>199</v>
+        <v>356</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q44" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7376,13 +7385,13 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>391</v>
+        <v>83</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
@@ -7400,7 +7409,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7415,58 +7424,60 @@
         <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>396</v>
+        <v>83</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>397</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>83</v>
+        <v>391</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7491,13 +7502,11 @@
         <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>83</v>
+        <v>396</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
@@ -7515,7 +7524,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>181</v>
+        <v>390</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7527,41 +7536,41 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>83</v>
+        <v>397</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>83</v>
+        <v>398</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>83</v>
+        <v>400</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>83</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -7573,7 +7582,7 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>184</v>
@@ -7581,9 +7590,7 @@
       <c r="M46" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7620,40 +7627,40 @@
         <v>83</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AC46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AD46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF46" t="s" s="2">
+      <c r="AG46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>83</v>
@@ -7664,46 +7671,44 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>311</v>
+        <v>137</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7739,19 +7744,19 @@
         <v>83</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>316</v>
+        <v>192</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7763,16 +7768,16 @@
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>318</v>
+        <v>187</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>83</v>
@@ -7783,10 +7788,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7794,31 +7799,35 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7866,28 +7875,28 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>182</v>
+        <v>323</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>83</v>
@@ -7898,21 +7907,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>83</v>
@@ -7924,7 +7933,7 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>184</v>
@@ -7932,9 +7941,7 @@
       <c r="M49" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -7971,40 +7978,40 @@
         <v>83</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AC49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AD49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF49" t="s" s="2">
+      <c r="AG49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>83</v>
@@ -8015,46 +8022,44 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>323</v>
+        <v>190</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>83</v>
       </c>
@@ -8090,40 +8095,40 @@
         <v>83</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>326</v>
+        <v>192</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>327</v>
+        <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>328</v>
+        <v>187</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>83</v>
@@ -8134,10 +8139,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8151,7 +8156,7 @@
         <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>83</v>
@@ -8160,18 +8165,20 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>83</v>
       </c>
@@ -8219,7 +8226,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8237,10 +8244,10 @@
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>83</v>
@@ -8251,10 +8258,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8262,13 +8269,13 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>83</v>
@@ -8277,18 +8284,18 @@
         <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8336,7 +8343,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8354,10 +8361,10 @@
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>83</v>
@@ -8368,10 +8375,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8379,7 +8386,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>92</v>
@@ -8394,17 +8401,17 @@
         <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8453,7 +8460,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8471,10 +8478,10 @@
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>83</v>
@@ -8485,10 +8492,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8502,7 +8509,7 @@
         <v>92</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>83</v>
@@ -8511,19 +8518,17 @@
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8572,7 +8577,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8590,10 +8595,10 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>83</v>
@@ -8604,10 +8609,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8630,19 +8635,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8691,7 +8696,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8709,10 +8714,10 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>83</v>
@@ -8723,24 +8728,24 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>410</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>83</v>
@@ -8749,18 +8754,20 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
       </c>
@@ -8784,13 +8791,13 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>414</v>
+        <v>83</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -8808,16 +8815,16 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>416</v>
+        <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>104</v>
@@ -8826,38 +8833,38 @@
         <v>83</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>397</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>83</v>
+        <v>414</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>83</v>
@@ -8866,18 +8873,18 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>419</v>
+        <v>204</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -8901,13 +8908,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>83</v>
+        <v>418</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>83</v>
+        <v>419</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -8925,16 +8932,16 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>83</v>
+        <v>420</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>104</v>
@@ -8943,24 +8950,24 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>83</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8968,13 +8975,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>83</v>
@@ -8983,16 +8990,18 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>83</v>
       </c>
@@ -9040,10 +9049,10 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>92</v>
@@ -9055,41 +9064,41 @@
         <v>104</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>428</v>
+        <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>432</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>434</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>83</v>
@@ -9098,13 +9107,13 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9155,10 +9164,10 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>92</v>
@@ -9170,31 +9179,31 @@
         <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9213,13 +9222,13 @@
         <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9270,7 +9279,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9285,31 +9294,31 @@
         <v>104</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>83</v>
+        <v>448</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9328,13 +9337,13 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9361,13 +9370,13 @@
         <v>83</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>457</v>
+        <v>83</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>458</v>
+        <v>83</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
@@ -9385,7 +9394,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9400,41 +9409,41 @@
         <v>104</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>83</v>
+        <v>452</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>83</v>
+        <v>453</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>83</v>
+        <v>455</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>462</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>83</v>
@@ -9443,13 +9452,13 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9476,13 +9485,13 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>83</v>
+        <v>461</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
@@ -9500,7 +9509,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9515,35 +9524,35 @@
         <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>466</v>
+        <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>467</v>
+        <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>469</v>
+        <v>83</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>92</v>
@@ -9558,17 +9567,15 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -9617,7 +9624,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9632,31 +9639,31 @@
         <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9666,7 +9673,7 @@
         <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>83</v>
@@ -9675,16 +9682,16 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>199</v>
+        <v>477</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9710,13 +9717,13 @@
         <v>83</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>487</v>
+        <v>83</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>488</v>
+        <v>83</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
@@ -9734,7 +9741,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9749,38 +9756,38 @@
         <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>83</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>83</v>
@@ -9792,16 +9799,16 @@
         <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>495</v>
+        <v>204</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9827,13 +9834,13 @@
         <v>83</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>83</v>
+        <v>491</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>83</v>
+        <v>492</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>83</v>
@@ -9851,13 +9858,13 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>83</v>
@@ -9866,16 +9873,16 @@
         <v>104</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -9883,24 +9890,24 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>83</v>
+        <v>498</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>83</v>
@@ -9909,15 +9916,17 @@
         <v>93</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>199</v>
+        <v>477</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -9942,13 +9951,13 @@
         <v>83</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>505</v>
+        <v>83</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>506</v>
+        <v>83</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
@@ -9966,7 +9975,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9981,16 +9990,16 @@
         <v>104</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>83</v>
+        <v>502</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>83</v>
+        <v>503</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -9998,10 +10007,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10024,13 +10033,13 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>509</v>
+        <v>204</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10057,13 +10066,13 @@
         <v>83</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>83</v>
+        <v>508</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>83</v>
+        <v>509</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10081,7 +10090,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10102,10 +10111,10 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10113,10 +10122,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10139,17 +10148,15 @@
         <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>199</v>
+        <v>512</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>515</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10174,13 +10181,13 @@
         <v>83</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>516</v>
+        <v>83</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>517</v>
+        <v>83</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>83</v>
@@ -10198,7 +10205,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10213,16 +10220,16 @@
         <v>104</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>518</v>
+        <v>83</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>519</v>
+        <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10230,10 +10237,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10241,13 +10248,13 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>83</v>
@@ -10256,16 +10263,16 @@
         <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>523</v>
+        <v>204</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10291,13 +10298,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>83</v>
+        <v>519</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>83</v>
+        <v>520</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10315,7 +10322,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10330,16 +10337,16 @@
         <v>104</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -10347,10 +10354,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10358,30 +10365,32 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10430,7 +10439,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10445,16 +10454,16 @@
         <v>104</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>83</v>
+        <v>524</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10462,14 +10471,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>538</v>
+        <v>83</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10479,7 +10488,7 @@
         <v>82</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>83</v>
@@ -10488,17 +10497,15 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10535,19 +10542,19 @@
         <v>83</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>543</v>
+        <v>83</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>544</v>
+        <v>83</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10562,13 +10569,13 @@
         <v>104</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>83</v>
@@ -10579,16 +10586,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10607,16 +10612,16 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10654,19 +10659,19 @@
         <v>83</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>83</v>
+        <v>546</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>83</v>
+        <v>547</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10681,13 +10686,13 @@
         <v>104</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>83</v>
@@ -10698,16 +10703,16 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C73" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="B73" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="D73" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10726,16 +10731,16 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>555</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10785,7 +10790,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -10800,13 +10805,13 @@
         <v>104</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>83</v>
@@ -10817,16 +10822,16 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="B74" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>557</v>
-      </c>
       <c r="D74" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10845,16 +10850,16 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>559</v>
-      </c>
       <c r="M74" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10904,7 +10909,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -10919,13 +10924,13 @@
         <v>104</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>83</v>
@@ -10936,16 +10941,16 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C75" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="B75" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>561</v>
-      </c>
       <c r="D75" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10964,16 +10969,16 @@
         <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>563</v>
-      </c>
       <c r="M75" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11023,7 +11028,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11038,13 +11043,13 @@
         <v>104</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>83</v>
@@ -11055,16 +11060,16 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C76" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="B76" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>565</v>
-      </c>
       <c r="D76" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11083,16 +11088,16 @@
         <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>566</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11142,7 +11147,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11157,13 +11162,13 @@
         <v>104</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>83</v>
@@ -11177,11 +11182,13 @@
         <v>567</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="D77" t="s" s="2">
-        <v>83</v>
+        <v>541</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11191,25 +11198,25 @@
         <v>82</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>568</v>
+        <v>526</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>569</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11259,7 +11266,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11274,13 +11281,13 @@
         <v>104</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>83</v>
+        <v>548</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>83</v>
@@ -11291,14 +11298,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>575</v>
+        <v>83</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11317,20 +11324,18 @@
         <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>199</v>
+        <v>571</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>83</v>
       </c>
@@ -11354,13 +11359,13 @@
         <v>83</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>580</v>
+        <v>83</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>581</v>
+        <v>83</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>83</v>
@@ -11378,7 +11383,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11396,28 +11401,28 @@
         <v>83</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>583</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>83</v>
+        <v>578</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11433,19 +11438,23 @@
         <v>83</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>585</v>
+        <v>204</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>52</v>
+        <v>579</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>582</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
       </c>
@@ -11469,13 +11478,13 @@
         <v>83</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>83</v>
+        <v>583</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>83</v>
+        <v>584</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
@@ -11493,7 +11502,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11508,27 +11517,27 @@
         <v>104</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>587</v>
+        <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>417</v>
+        <v>575</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11539,7 +11548,7 @@
         <v>81</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>83</v>
@@ -11548,16 +11557,16 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>178</v>
+        <v>588</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>591</v>
+        <v>52</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11608,13 +11617,13 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>83</v>
@@ -11623,27 +11632,27 @@
         <v>104</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>83</v>
+        <v>590</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>83</v>
+        <v>592</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11654,7 +11663,7 @@
         <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>83</v>
@@ -11663,20 +11672,18 @@
         <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>598</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -11725,13 +11732,13 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>83</v>
@@ -11740,23 +11747,140 @@
         <v>104</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="AL81" t="s" s="2">
+      <c r="M82" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AM81" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO81" t="s" s="2">
+      <c r="AM82" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO81">
+  <autoFilter ref="A1:AO82">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11766,7 +11890,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/ig/iq/StructureDefinition-ServiceRequestCirugiaLE.xlsx
+++ b/fhir/ig/iq/StructureDefinition-ServiceRequestCirugiaLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:11-03:00</t>
+    <t>2024-12-17T10:27:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
